--- a/Subject_Dir/ToDolist_Dir/소프트웨어공학.xlsx
+++ b/Subject_Dir/ToDolist_Dir/소프트웨어공학.xlsx
@@ -12,7 +12,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>과목</t>
+  </si>
+  <si>
+    <t>할 일</t>
+  </si>
+  <si>
+    <t>마감 기한</t>
+  </si>
+  <si>
+    <t>실제 마감일</t>
+  </si>
+  <si>
+    <t>완료 여부</t>
+  </si>
+  <si>
+    <t>중요도</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -55,13 +74,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
